--- a/pred_ohlcv/54_21/2019-10-14 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 TRX ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>350788.1453</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1814124.2601</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1813961.9729</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1813961.9729</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1839868.7086</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1810605.846</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2626989.106</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2426989.106</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2483187.7837</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2483187.7837</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2740021.94360721</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1662771.900127471</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1662846.900127471</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1541151.123727471</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1614312.808892911</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1699212.808892911</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1715717.962375631</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1715717.962375631</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1715717.962375631</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1710717.962375631</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1819901.225475631</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1819901.225475631</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2252551.988175632</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2252551.988175632</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1453094.562575631</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1449415.160375631</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1503000.699775631</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1503000.699775631</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1503000.699775631</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1497503.149196681</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1489470.831296681</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1531576.094396682</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1532099.654606102</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1532099.654606102</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1153869.436206102</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1153869.436206102</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1123307.567806101</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1123307.567806101</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1431209.566206101</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1429678.403706101</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1430052.179206101</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1916265.946006101</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1638821.102006101</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1738837.326406101</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1344838.816406101</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>699362.460306101</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>897212.101506101</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>897212.101506101</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>897212.101506101</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1521362.023806101</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1033585.987706101</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>848728.6291061008</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>848247.4982061008</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1621915.381206101</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1641915.381206101</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1606268.888106101</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>2115977.213479561</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>2037504.480879561</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1759022.654579561</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1779102.020679561</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1102374.546579561</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1102374.546579561</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1102374.546579561</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1085745.373579561</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>1495198.636661191</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1495198.636661191</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1495959.635088181</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1451716.099888181</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1451716.099888181</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1351716.099888181</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>684189.0271881806</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>181976.8251881806</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>181976.8251881806</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>446470.6616881806</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>446470.6616881806</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>288263.7575881806</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>288263.7575881806</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>288074.5105881806</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>321683.8500881806</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-4800980.040611819</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-4800965.040611819</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-14 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 TRX ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>354066.3435</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>354066.3435</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>354066.3435</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1814124.2601</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1810605.846</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2626989.106</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2426989.106</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2483187.7837</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2483187.7837</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2740021.94360721</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1662771.900127471</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1662846.900127471</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1541151.123727471</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1614312.808892911</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1699212.808892911</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1819901.225475631</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1531576.094396682</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1153869.436206102</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1153869.436206102</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1123307.567806101</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1123307.567806101</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1431209.566206101</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1429678.403706101</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1430052.179206101</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1916265.946006101</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1638821.102006101</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1738837.326406101</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1521362.023806101</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1033585.987706101</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>848728.6291061008</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>848247.4982061008</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>848247.4982061008</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1723052.321706101</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1641915.381206101</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>2115977.213479561</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>2037504.480879561</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1759022.654579561</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1779102.020679561</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1102374.546579561</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1102374.546579561</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1495198.636661191</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1495959.635088181</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1451716.099888181</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>684189.0271881806</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>181976.8251881806</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>181976.8251881806</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>446470.6616881806</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>446470.6616881806</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>288263.7575881806</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>288263.7575881806</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-4856179.3922834</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-4856179.3922834</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-4856179.3922834</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-4796183.9229834</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-4796183.9229834</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-4796183.9229834</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-4823199.94338544</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-4823199.94338544</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-3833982.53158544</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
